--- a/WIP/Users/LucPT/SystemTest_Admin_10.08.2015.xlsx
+++ b/WIP/Users/LucPT/SystemTest_Admin_10.08.2015.xlsx
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="163">
   <si>
     <t>Back to Test Report</t>
   </si>
@@ -544,88 +544,11 @@
   </si>
   <si>
     <t>1. The "User management" page is displayed
-2. Reported User list page is displayed
-3. user page is displayed</t>
-  </si>
-  <si>
-    <t>Check "delete user post" button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Login the system with admin role.
-1. Click Delete user's post
-2. Enters message in text box
-3. Click cancel
-</t>
-  </si>
-  <si>
-    <t>1. The "User management" page is displayed
-1. Text box popup is displayed
-2. Text in text box is displayed
-3. popup is close</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Login the system with admin role.
-1. Click Delete user's post
-2. choose reason message in combo box
-3. Click "delete" or press enter
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Login the system with admin role.
-2. click Reply link
-3. click answer
-4. Input into text box
-5. Click "Reply" button
-</t>
-  </si>
-  <si>
-    <t>1. The "User management" page is displayed
 2. combo box popup is displayed
 3. Reason in combo box is displayed
 4. popup is close</t>
   </si>
   <si>
-    <t>1. The "User management" page is displayed
-2. Text box popup is displayed
-3. Reason in combo box is displayed
-4. popup is close</t>
-  </si>
-  <si>
-    <t>1. The "User management" page is displayed
-2. Reply screen is displayed
-3. text box is displayed
-4. Text in text box is displayed
-5. Text box popup  is closed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Login the system with admin role.
-2. click Reply link
-3. click answer
-4. Input into text box
-5. Click "cancel" button
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Login the system with admin role.
-2. click Reply link
-3. click answer
-4. Click cancel
-</t>
-  </si>
-  <si>
-    <t>1. The "User management" page is displayed
-1. Reply screen is displayed
-2. text box is displayed
-4. Text box popup  is closed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Login the system with admin role.
-2. click Reply link
-3. click answer
-4. Click "reply" or enter
-</t>
-  </si>
-  <si>
     <t>Lock module</t>
   </si>
   <si>
@@ -636,9 +559,6 @@
   </si>
   <si>
     <t>Review module</t>
-  </si>
-  <si>
-    <t>Delete user module</t>
   </si>
   <si>
     <t>Reply question module</t>
@@ -811,16 +731,6 @@
     <t>Check "Review post" button</t>
   </si>
   <si>
-    <t>Check "Delete user post" button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Login the system with admin role.
-1. Click Delete user's post
-2. choose reason message in combo box
-3. Click "Delete" or press enter
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. The "User management" page is displayed
 2. The "Admin management"  page is displayed
 3. The "Edit information" page is displayed
@@ -894,13 +804,6 @@
 4. Closes popup.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Login the system with admin role.
-1. Click Delete user's post
-2. Enters message in textbox
-3. Click Cancel
-</t>
-  </si>
-  <si>
     <t>1. The "User management" page is displayed
 1. Reply screen is displayed
 2. textbox is displayed
@@ -929,13 +832,6 @@
 </t>
   </si>
   <si>
-    <t>1. The "User management" page is displayed
-2. Reply screen is displayed
-3. Textbox is displayed
-4. Text in text box is displayed
-5. Text box popup  is closed</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Login the system with admin role.
 2. click Reply link
 3. click answer
@@ -945,20 +841,54 @@
   </si>
   <si>
     <t>1. The "User management" page is displayed
-2. Text box popup is displayed
+2. Reported User list page is displayed
+3. Post details is displayed</t>
+  </si>
+  <si>
+    <t>1. The "User management" page is displayed
+1. Textbox popup is displayed
+2. Text in Textbox is displayed
+3. Popup is closed</t>
+  </si>
+  <si>
+    <t>1. The "User management" page is displayed
+2. Textbox popup is displayed
 3. Reason in combo box is displayed
 4. Popup is close</t>
   </si>
   <si>
     <t>1. The "User management" page is displayed
-1. Text box popup is displayed
-2. Text in text box is displayed
-3. Popup is closed</t>
-  </si>
-  <si>
-    <t>1. The "User management" page is displayed
-2. Reported User list page is displayed
-3. Post details is displayed</t>
+2. Reply screen is displayed
+3. Textbox is displayed
+4. Text in Textbox is displayed
+5. Textbox popup  is closed</t>
+  </si>
+  <si>
+    <t>Lock and hide user's post module</t>
+  </si>
+  <si>
+    <t>Check "Lock user's post" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login the system with admin role.
+1. Click Lock user's post
+2. Enters message in textbox
+3. Click Cancel
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login the system with admin role.
+1. Click Lock user's post
+2. choose reason message in combo box
+3. Click "Lock" or press enter
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login the system with admin role.
+1. Click Delete user's post
+2. choose reason message in combo box
+3. Click "Lock" or press enter
+</t>
   </si>
 </sst>
 </file>
@@ -1738,7 +1668,7 @@
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2647,7 +2577,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>19</v>
@@ -2669,7 +2599,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>19</v>
@@ -2691,7 +2621,7 @@
         <v>23</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>19</v>
@@ -2943,7 +2873,7 @@
         <v>44</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D25" s="36" t="s">
         <v>45</v>
@@ -2965,7 +2895,7 @@
         <v>47</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D26" s="36" t="s">
         <v>48</v>
@@ -2984,10 +2914,10 @@
         <v>[Admin module-17]</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D27" s="36" t="s">
         <v>50</v>
@@ -3009,10 +2939,10 @@
         <v>51</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E28" s="35" t="s">
         <v>49</v>
@@ -3031,10 +2961,10 @@
         <v>53</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E29" s="35" t="s">
         <v>49</v>
@@ -3053,7 +2983,7 @@
         <v>54</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D30" s="36" t="s">
         <v>52</v>
@@ -3075,10 +3005,10 @@
         <v>55</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E31" s="35" t="s">
         <v>49</v>
@@ -3097,7 +3027,7 @@
         <v>55</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D32" s="36" t="s">
         <v>56</v>
@@ -3119,10 +3049,10 @@
         <v>57</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E33" s="35" t="s">
         <v>49</v>
@@ -3141,7 +3071,7 @@
         <v>54</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D34" s="36" t="s">
         <v>52</v>
@@ -3163,7 +3093,7 @@
         <v>58</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D35" s="36" t="s">
         <v>59</v>
@@ -3185,7 +3115,7 @@
         <v>58</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D36" s="36" t="s">
         <v>60</v>
@@ -3207,10 +3137,10 @@
         <v>61</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E37" s="35" t="s">
         <v>49</v>
@@ -3229,7 +3159,7 @@
         <v>62</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D38" s="36" t="s">
         <v>63</v>
@@ -3251,7 +3181,7 @@
         <v>64</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D39" s="36" t="s">
         <v>65</v>
@@ -3273,7 +3203,7 @@
         <v>64</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D40" s="36" t="s">
         <v>65</v>
@@ -3295,7 +3225,7 @@
         <v>64</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D41" s="36" t="s">
         <v>65</v>
@@ -3317,10 +3247,10 @@
         <v>66</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E42" s="35" t="s">
         <v>49</v>
@@ -3339,7 +3269,7 @@
         <v>67</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="D43" s="36" t="s">
         <v>68</v>
@@ -3361,7 +3291,7 @@
         <v>69</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D44" s="36" t="s">
         <v>70</v>
@@ -3383,7 +3313,7 @@
         <v>71</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D45" s="36" t="s">
         <v>72</v>
@@ -3405,7 +3335,7 @@
         <v>73</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D46" s="36" t="s">
         <v>72</v>
@@ -3427,7 +3357,7 @@
         <v>74</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D47" s="36" t="s">
         <v>75</v>
@@ -3443,7 +3373,7 @@
     <row r="48" spans="1:9" ht="19.5" customHeight="1">
       <c r="A48" s="24"/>
       <c r="B48" s="24" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -3459,13 +3389,13 @@
         <v>[Admin module-39]</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E49" s="35" t="s">
         <v>49</v>
@@ -3481,10 +3411,10 @@
         <v>[Admin module-40]</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D50" s="36" t="s">
         <v>94</v>
@@ -3500,7 +3430,7 @@
     <row r="51" spans="1:9" ht="21.75" customHeight="1">
       <c r="A51" s="24"/>
       <c r="B51" s="24" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -3516,7 +3446,7 @@
         <v>[Admin module-42]</v>
       </c>
       <c r="B52" s="30" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C52" s="30" t="s">
         <v>95</v>
@@ -3538,13 +3468,13 @@
         <v>[Admin module-43]</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E53" s="35" t="s">
         <v>49</v>
@@ -3557,7 +3487,7 @@
     <row r="54" spans="1:9" ht="22.5" customHeight="1">
       <c r="A54" s="24"/>
       <c r="B54" s="24" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -3573,13 +3503,13 @@
         <v>[Admin module-45]</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C55" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D55" s="36" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E55" s="35" t="s">
         <v>49</v>
@@ -3601,7 +3531,7 @@
         <v>98</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E56" s="35" t="s">
         <v>49</v>
@@ -3614,7 +3544,7 @@
     <row r="57" spans="1:9" ht="21" customHeight="1">
       <c r="A57" s="24"/>
       <c r="B57" s="24" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -3630,7 +3560,7 @@
         <v>[Admin module-48]</v>
       </c>
       <c r="B58" s="30" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C58" s="30" t="s">
         <v>99</v>
@@ -3652,13 +3582,13 @@
         <v>[Admin module-49]</v>
       </c>
       <c r="B59" s="30" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C59" s="30" t="s">
         <v>101</v>
       </c>
       <c r="D59" s="36" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="E59" s="35" t="s">
         <v>49</v>
@@ -3671,7 +3601,7 @@
     <row r="60" spans="1:9" ht="26.25" customHeight="1">
       <c r="A60" s="24"/>
       <c r="B60" s="24" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -3687,13 +3617,13 @@
         <v>[Admin module-51]</v>
       </c>
       <c r="B61" s="30" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D61" s="36" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="E61" s="35" t="s">
         <v>49</v>
@@ -3709,13 +3639,13 @@
         <v>[Admin module-52]</v>
       </c>
       <c r="B62" s="30" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D62" s="36" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E62" s="35" t="s">
         <v>49</v>
@@ -3731,13 +3661,13 @@
         <v>[Admin module-53]</v>
       </c>
       <c r="B63" s="30" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D63" s="36" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E63" s="35" t="s">
         <v>49</v>
@@ -3750,7 +3680,7 @@
     <row r="64" spans="1:9" ht="21.75" customHeight="1">
       <c r="A64" s="24"/>
       <c r="B64" s="24" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -3766,13 +3696,13 @@
         <v>[Admin module-55]</v>
       </c>
       <c r="B65" s="30" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="D65" s="36" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E65" s="35" t="s">
         <v>49</v>
@@ -3788,13 +3718,13 @@
         <v>[Admin module-56]</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D66" s="36" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E66" s="35" t="s">
         <v>49</v>
@@ -3810,13 +3740,13 @@
         <v>[Admin module-57]</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D67" s="36" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E67" s="35" t="s">
         <v>49</v>
@@ -3832,13 +3762,13 @@
         <v>[Admin module-58]</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="D68" s="36" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="E68" s="35" t="s">
         <v>49</v>
